--- a/Azure Lab.xlsx
+++ b/Azure Lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8BC42D2B-1AB9-D64A-899D-36E3EA77F77A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9D2A9F5-07A5-EB40-B72D-44D234BE6CDA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="2340" windowWidth="38020" windowHeight="17240" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
+    <workbookView xWindow="380" yWindow="2340" windowWidth="38020" windowHeight="17240" activeTab="1" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Machines" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="293">
   <si>
     <t>Domain Controller</t>
   </si>
@@ -75,9 +75,6 @@
     <t>SIAM</t>
   </si>
   <si>
-    <t>10.0.2.4</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -144,30 +141,6 @@
     <t>Server Name</t>
   </si>
   <si>
-    <t>10.0.1.4</t>
-  </si>
-  <si>
-    <t>10.0.1.5</t>
-  </si>
-  <si>
-    <t>10.0.1.6</t>
-  </si>
-  <si>
-    <t>10.0.1.7</t>
-  </si>
-  <si>
-    <t>10.0.1.8</t>
-  </si>
-  <si>
-    <t>10.0.1.9</t>
-  </si>
-  <si>
-    <t>10.0.1.10</t>
-  </si>
-  <si>
-    <t>10.0.1.11</t>
-  </si>
-  <si>
     <t>eucs.internal</t>
   </si>
   <si>
@@ -402,9 +375,6 @@
     <t>VMName</t>
   </si>
   <si>
-    <t>10.0.0.0/16</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -417,69 +387,18 @@
     <t>EastUS</t>
   </si>
   <si>
-    <t>10.0.1.0/24</t>
-  </si>
-  <si>
-    <t>10.0.2.0/24</t>
-  </si>
-  <si>
-    <t>10.0.3.0/24</t>
-  </si>
-  <si>
-    <t>10.0.4.0/24</t>
-  </si>
-  <si>
-    <t>10.0.5.0/24</t>
-  </si>
-  <si>
-    <t>10.0.4.4</t>
-  </si>
-  <si>
-    <t>10.0.4.5</t>
-  </si>
-  <si>
-    <t>10.0.4.6</t>
-  </si>
-  <si>
-    <t>10.0.4.7</t>
-  </si>
-  <si>
-    <t>10.0.4.8</t>
-  </si>
-  <si>
-    <t>10.0.4.9</t>
-  </si>
-  <si>
-    <t>10.0.4.10</t>
-  </si>
-  <si>
-    <t>10.0.5.4</t>
-  </si>
-  <si>
     <t>useradfs01</t>
   </si>
   <si>
     <t>userawap01</t>
   </si>
   <si>
-    <t>10.0.2.5</t>
-  </si>
-  <si>
-    <t>10.0.2.6</t>
-  </si>
-  <si>
     <t>useraadc01</t>
   </si>
   <si>
     <t>usermail01</t>
   </si>
   <si>
-    <t>10.0.2.7</t>
-  </si>
-  <si>
-    <t>10.0.2.8</t>
-  </si>
-  <si>
     <t>Standard_B2s</t>
   </si>
   <si>
@@ -639,42 +558,21 @@
     <t>10.2.1.7</t>
   </si>
   <si>
-    <t>10.2.1.8</t>
-  </si>
-  <si>
-    <t>10.2.2.4</t>
-  </si>
-  <si>
     <t>10.3.1.4</t>
   </si>
   <si>
     <t>10.3.2.4</t>
   </si>
   <si>
-    <t>10.3.2.5</t>
-  </si>
-  <si>
-    <t>10.3.2.6</t>
-  </si>
-  <si>
-    <t>10.3.2.7</t>
-  </si>
-  <si>
     <t>WestUS2</t>
   </si>
   <si>
-    <t>10.0.3.0/25</t>
-  </si>
-  <si>
     <t>10.2.0.0/16</t>
   </si>
   <si>
     <t>10.2.1.0/24</t>
   </si>
   <si>
-    <t>10.2.2.0/24</t>
-  </si>
-  <si>
     <t>10.3.0.0/16</t>
   </si>
   <si>
@@ -912,9 +810,6 @@
     <t>Archive</t>
   </si>
   <si>
-    <t>ttplab1-scu-vnet1</t>
-  </si>
-  <si>
     <t>eucslan-scu-1</t>
   </si>
   <si>
@@ -925,6 +820,105 @@
   </si>
   <si>
     <t>siamdmz-scu-1</t>
+  </si>
+  <si>
+    <t>10.1.1.8</t>
+  </si>
+  <si>
+    <t>10.1.1.9</t>
+  </si>
+  <si>
+    <t>10.1.1.10</t>
+  </si>
+  <si>
+    <t>10.1.1.11</t>
+  </si>
+  <si>
+    <t>10.1.2.4</t>
+  </si>
+  <si>
+    <t>10.1.2.5</t>
+  </si>
+  <si>
+    <t>10.1.2.6</t>
+  </si>
+  <si>
+    <t>10.1.2.7</t>
+  </si>
+  <si>
+    <t>10.1.2.8</t>
+  </si>
+  <si>
+    <t>10.1.3.4</t>
+  </si>
+  <si>
+    <t>10.1.4.4</t>
+  </si>
+  <si>
+    <t>10.1.4.5</t>
+  </si>
+  <si>
+    <t>10.1.4.6</t>
+  </si>
+  <si>
+    <t>10.1.4.7</t>
+  </si>
+  <si>
+    <t>10.1.4.8</t>
+  </si>
+  <si>
+    <t>10.1.4.9</t>
+  </si>
+  <si>
+    <t>10.1.4.10</t>
+  </si>
+  <si>
+    <t>10.1.5.4</t>
+  </si>
+  <si>
+    <t>10.1.2.0/24</t>
+  </si>
+  <si>
+    <t>10.1.3.0/24</t>
+  </si>
+  <si>
+    <t>10.1.4.0/24</t>
+  </si>
+  <si>
+    <t>10.1.5.0/24</t>
+  </si>
+  <si>
+    <t>10.4.0.0/16</t>
+  </si>
+  <si>
+    <t>10.3.2.0/24</t>
+  </si>
+  <si>
+    <t>10.4.1.0/24</t>
+  </si>
+  <si>
+    <t>10.4.1.4</t>
+  </si>
+  <si>
+    <t>10.4.1.5</t>
+  </si>
+  <si>
+    <t>10.4.1.6</t>
+  </si>
+  <si>
+    <t>10.4.1.7</t>
+  </si>
+  <si>
+    <t>10.3.1.5</t>
+  </si>
+  <si>
+    <t>10.3.1.6</t>
+  </si>
+  <si>
+    <t>10.3.1.7</t>
+  </si>
+  <si>
+    <t>10.3.1.8</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1707,8 @@
   </sheetPr>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1746,22 +1740,22 @@
   <sheetData>
     <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>2</v>
@@ -1770,72 +1764,72 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="78" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="R1" s="78" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="S1" s="78" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="T1" s="78" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G2" s="51">
         <f>VLOOKUP(F2,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -1846,28 +1840,28 @@
         <v>4</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="53">
         <f>$T2/730</f>
@@ -1886,34 +1880,34 @@
         <v>36.04</v>
       </c>
       <c r="U2" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G3" s="51">
         <f>VLOOKUP(F3,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -1924,28 +1918,28 @@
         <v>4</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q23" si="0">$T3/730</f>
@@ -1964,36 +1958,36 @@
         <v>36.04</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G4" s="51">
         <f>VLOOKUP(F4,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2004,28 +1998,28 @@
         <v>4</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="0"/>
@@ -2044,36 +2038,36 @@
         <v>36.04</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G5" s="51">
         <f>VLOOKUP(F5,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2084,28 +2078,28 @@
         <v>4</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="55">
         <f t="shared" si="0"/>
@@ -2124,34 +2118,34 @@
         <v>36.04</v>
       </c>
       <c r="U5" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G6" s="51">
         <f>VLOOKUP(F6,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2162,28 +2156,28 @@
         <v>8</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="0"/>
@@ -2202,34 +2196,34 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G7" s="51">
         <f>VLOOKUP(F7,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2240,28 +2234,28 @@
         <v>8</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="53">
         <f t="shared" si="0"/>
@@ -2280,34 +2274,34 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G8" s="51">
         <f>VLOOKUP(F8,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2318,28 +2312,28 @@
         <v>8</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="0"/>
@@ -2358,34 +2352,34 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V8" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G9" s="69">
         <f>VLOOKUP(F9,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2396,28 +2390,28 @@
         <v>8</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L9" s="66" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N9" s="70" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="O9" s="67" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="P9" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="71">
         <f t="shared" si="0"/>
@@ -2436,36 +2430,36 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U9" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V9" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G10" s="51">
         <f>VLOOKUP(F10,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2476,28 +2470,28 @@
         <v>4</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="0"/>
@@ -2516,34 +2510,34 @@
         <v>36.04</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V10" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G11" s="51">
         <f>VLOOKUP(F11,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2554,28 +2548,28 @@
         <v>4</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="0"/>
@@ -2594,28 +2588,28 @@
         <v>36.04</v>
       </c>
       <c r="U11" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G12" s="51">
         <f>VLOOKUP(F12,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2626,28 +2620,28 @@
         <v>4</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="0"/>
@@ -2666,18 +2660,18 @@
         <v>36.04</v>
       </c>
       <c r="U12" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V12" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>5</v>
@@ -2686,10 +2680,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G13" s="51">
         <f>VLOOKUP(F13,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2700,28 +2694,28 @@
         <v>4</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="0"/>
@@ -2740,28 +2734,28 @@
         <v>36.04</v>
       </c>
       <c r="U13" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V13" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G14" s="51">
         <f>VLOOKUP(F14,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2775,25 +2769,25 @@
         <v>8</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>290</v>
+        <v>243</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="0"/>
@@ -2812,15 +2806,15 @@
         <v>36.04</v>
       </c>
       <c r="U14" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="66" t="s">
@@ -2828,10 +2822,10 @@
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G15" s="69">
         <f>VLOOKUP(F15,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2842,28 +2836,28 @@
         <v>4</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J15" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="N15" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="K15" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="L15" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="N15" s="70" t="s">
-        <v>293</v>
-      </c>
       <c r="O15" s="66" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="P15" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="71">
         <f t="shared" si="0"/>
@@ -2882,30 +2876,30 @@
         <v>36.04</v>
       </c>
       <c r="U15" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G16" s="51">
         <f>VLOOKUP(F16,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2916,28 +2910,28 @@
         <v>4</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="0"/>
@@ -2956,18 +2950,18 @@
         <v>36.04</v>
       </c>
       <c r="U16" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V16" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>5</v>
@@ -2979,7 +2973,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G17" s="51">
         <f>VLOOKUP(F17,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2990,28 +2984,28 @@
         <v>4</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="0"/>
@@ -3030,28 +3024,28 @@
         <v>36.04</v>
       </c>
       <c r="U17" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V17" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G18" s="51">
         <f>VLOOKUP(F18,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -3062,28 +3056,28 @@
         <v>8</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="0"/>
@@ -3102,30 +3096,30 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U18" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G19" s="51">
         <f>VLOOKUP(F19,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -3136,28 +3130,28 @@
         <v>8</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="55">
         <f t="shared" si="0"/>
@@ -3176,30 +3170,30 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U19" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V19" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G20" s="51">
         <f>VLOOKUP(F20,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -3210,28 +3204,28 @@
         <v>8</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="53">
         <f t="shared" si="0"/>
@@ -3250,30 +3244,30 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U20" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V20" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G21" s="51">
         <f>VLOOKUP(F21,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -3284,28 +3278,28 @@
         <v>4</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="53">
         <f t="shared" si="0"/>
@@ -3324,28 +3318,28 @@
         <v>36.04</v>
       </c>
       <c r="U21" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V21" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G22" s="51">
         <f>VLOOKUP(F22,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -3356,28 +3350,28 @@
         <v>4</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K22" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="O22" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="L22" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>136</v>
-      </c>
       <c r="P22" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="53">
         <f t="shared" si="0"/>
@@ -3396,15 +3390,15 @@
         <v>36.04</v>
       </c>
       <c r="U22" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
@@ -3415,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G23" s="52">
         <f>VLOOKUP(F23,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -3426,28 +3420,28 @@
         <v>4</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L23" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="M23" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="N23" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>137</v>
-      </c>
       <c r="P23" s="42" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="54">
         <f t="shared" si="0"/>
@@ -3466,10 +3460,10 @@
         <v>36.04</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V23" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3486,20 +3480,20 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" s="64"/>
       <c r="Q24" s="79" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="R24" s="79" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="S24" s="79" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="T24" s="79" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="U24" s="64"/>
       <c r="V24" s="64"/>
@@ -3520,7 +3514,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25" s="39"/>
       <c r="Q25" s="58">
@@ -3556,7 +3550,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="58">
@@ -3592,7 +3586,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="10">
@@ -3661,12 +3655,12 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFA94CCC-6BE0-7F41-9B75-2841A9C5833E}">
           <x14:formula1>
             <xm:f>ImageName!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I23 I2</xm:sqref>
+          <xm:sqref>I2:I23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB02963B-2921-8F4D-A993-99D94D4A4F98}">
           <x14:formula1>
@@ -3704,60 +3698,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3783,21 +3777,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3811,7 +3805,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3825,7 +3819,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3839,7 +3833,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3853,7 +3847,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3867,7 +3861,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B7" s="50">
         <v>8</v>
@@ -3906,12 +3900,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
@@ -3923,7 +3917,7 @@
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -3935,28 +3929,28 @@
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -3964,25 +3958,25 @@
         <v>100</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C6" s="26">
         <v>3389</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3990,25 +3984,25 @@
         <v>65000</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,25 +4010,25 @@
         <v>65001</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4042,30 +4036,30 @@
         <v>65500</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -4077,28 +4071,28 @@
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4106,25 +4100,25 @@
         <v>65000</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -4132,25 +4126,25 @@
         <v>65001</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4158,25 +4152,25 @@
         <v>65500</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4190,7 +4184,7 @@
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -4202,7 +4196,7 @@
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="89" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
@@ -4214,28 +4208,28 @@
     </row>
     <row r="18" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4243,25 +4237,25 @@
         <v>100</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C19" s="26">
         <v>3389</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4269,25 +4263,25 @@
         <v>65000</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4295,25 +4289,25 @@
         <v>65001</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4321,30 +4315,30 @@
         <v>65500</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90"/>
@@ -4356,28 +4350,28 @@
     </row>
     <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4385,25 +4379,25 @@
         <v>65000</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4411,25 +4405,25 @@
         <v>65001</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4437,30 +4431,30 @@
         <v>65500</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
@@ -4472,7 +4466,7 @@
     </row>
     <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
@@ -4484,28 +4478,28 @@
     </row>
     <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4513,25 +4507,25 @@
         <v>100</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C32" s="26">
         <v>3389</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4539,25 +4533,25 @@
         <v>65000</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4565,25 +4559,25 @@
         <v>65001</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E34" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4591,30 +4585,30 @@
         <v>65500</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="89" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -4626,28 +4620,28 @@
     </row>
     <row r="37" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4655,25 +4649,25 @@
         <v>65000</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -4681,25 +4675,25 @@
         <v>65001</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4707,30 +4701,30 @@
         <v>65500</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B42" s="81"/>
       <c r="C42" s="81"/>
@@ -4742,7 +4736,7 @@
     </row>
     <row r="43" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="89" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B43" s="90"/>
       <c r="C43" s="90"/>
@@ -4754,28 +4748,28 @@
     </row>
     <row r="44" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4783,25 +4777,25 @@
         <v>100</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C45" s="26">
         <v>3389</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4809,25 +4803,25 @@
         <v>65000</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4835,25 +4829,25 @@
         <v>65001</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E47" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4861,30 +4855,30 @@
         <v>65500</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="89" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B49" s="90"/>
       <c r="C49" s="90"/>
@@ -4896,28 +4890,28 @@
     </row>
     <row r="50" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4925,25 +4919,25 @@
         <v>65000</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4951,25 +4945,25 @@
         <v>65001</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4977,30 +4971,30 @@
         <v>65500</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="80" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B55" s="81"/>
       <c r="C55" s="81"/>
@@ -5012,7 +5006,7 @@
     </row>
     <row r="56" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="89" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B56" s="90"/>
       <c r="C56" s="90"/>
@@ -5024,28 +5018,28 @@
     </row>
     <row r="57" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -5053,25 +5047,25 @@
         <v>100</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C58" s="26">
         <v>3389</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -5079,25 +5073,25 @@
         <v>65000</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -5105,25 +5099,25 @@
         <v>65001</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E60" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -5131,30 +5125,30 @@
         <v>65500</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="89" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B62" s="90"/>
       <c r="C62" s="90"/>
@@ -5166,28 +5160,28 @@
     </row>
     <row r="63" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -5195,25 +5189,25 @@
         <v>65000</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -5221,25 +5215,25 @@
         <v>65001</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -5247,25 +5241,25 @@
         <v>65500</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5315,33 +5309,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(B2,":",C2,":",D2)</f>
@@ -5350,16 +5344,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E13" si="0">CONCATENATE(B3,":",C3,":",D3)</f>
@@ -5368,16 +5362,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -5386,16 +5380,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -5404,16 +5398,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -5422,16 +5416,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -5440,16 +5434,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -5458,16 +5452,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -5476,16 +5470,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -5494,13 +5488,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D11" s="17">
         <v>2016</v>
@@ -5512,13 +5506,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D12" s="17">
         <v>2013</v>
@@ -5533,13 +5527,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -5556,63 +5550,67 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="str">
         <f>'Virtual Machines'!J2</f>
         <v>SouthCentralUS</v>
@@ -5630,35 +5628,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E2" s="75" t="str">
+        <f>'Virtual Machines'!M2</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F2" s="75" t="str">
         <f>'Virtual Machines'!N2</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F2" s="75" t="str">
+      <c r="G2" s="75" t="str">
         <f>'Virtual Machines'!O2</f>
-        <v>10.0.1.4</v>
-      </c>
-      <c r="G2" s="75" t="str">
+        <v>10.1.1.4</v>
+      </c>
+      <c r="H2" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I2,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H2" s="75" t="str">
-        <f>LEFT(G2, SEARCH(":",G2,1)-1)</f>
+      <c r="I2" s="75" t="str">
+        <f>LEFT(H2, SEARCH(":",H2,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I2" s="75" t="str">
-        <f>MID(G2, SEARCH(":",G2) + 1, SEARCH(":",G2,SEARCH(":",G2)+1) - SEARCH(":",G2) - 1)</f>
+      <c r="J2" s="75" t="str">
+        <f>MID(H2, SEARCH(":",H2) + 1, SEARCH(":",H2,SEARCH(":",H2)+1) - SEARCH(":",H2) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="J2" s="75" t="str">
-        <f>RIGHT(G2,LEN(G2) - SEARCH(":", G2, SEARCH(":", G2) + 1))</f>
+      <c r="K2" s="75" t="str">
+        <f>RIGHT(H2,LEN(H2) - SEARCH(":", H2, SEARCH(":", H2) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K2" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L2,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L2,".blob.core.windows.net/osdisks/",C2,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsadds01.vhd</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="75" t="str">
         <f>'Virtual Machines'!J3</f>
         <v>SouthCentralUS</v>
@@ -5676,35 +5678,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E3" s="75" t="str">
+        <f>'Virtual Machines'!M3</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F3" s="75" t="str">
         <f>'Virtual Machines'!N3</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F3" s="75" t="str">
+      <c r="G3" s="75" t="str">
         <f>'Virtual Machines'!O3</f>
-        <v>10.0.1.5</v>
-      </c>
-      <c r="G3" s="75" t="str">
+        <v>10.1.1.5</v>
+      </c>
+      <c r="H3" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I3,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H3" s="75" t="str">
-        <f t="shared" ref="H3:H23" si="0">LEFT(G3, SEARCH(":",G3,1)-1)</f>
+      <c r="I3" s="75" t="str">
+        <f t="shared" ref="I3:I23" si="0">LEFT(H3, SEARCH(":",H3,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I3" s="75" t="str">
-        <f t="shared" ref="I3:I23" si="1">MID(G3, SEARCH(":",G3) + 1, SEARCH(":",G3,SEARCH(":",G3)+1) - SEARCH(":",G3) - 1)</f>
+      <c r="J3" s="75" t="str">
+        <f t="shared" ref="J3:J23" si="1">MID(H3, SEARCH(":",H3) + 1, SEARCH(":",H3,SEARCH(":",H3)+1) - SEARCH(":",H3) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="J3" s="75" t="str">
-        <f t="shared" ref="J3:J23" si="2">RIGHT(G3,LEN(G3) - SEARCH(":", G3, SEARCH(":", G3) + 1))</f>
+      <c r="K3" s="75" t="str">
+        <f t="shared" ref="K3:K23" si="2">RIGHT(H3,LEN(H3) - SEARCH(":", H3, SEARCH(":", H3) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K3" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L3,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L3,".blob.core.windows.net/osdisks/",C3,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsadcs01.vhd</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="str">
         <f>'Virtual Machines'!J4</f>
         <v>SouthCentralUS</v>
@@ -5722,35 +5728,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E4" s="75" t="str">
+        <f>'Virtual Machines'!M4</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F4" s="75" t="str">
         <f>'Virtual Machines'!N4</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F4" s="75" t="str">
+      <c r="G4" s="75" t="str">
         <f>'Virtual Machines'!O4</f>
-        <v>10.0.1.6</v>
-      </c>
-      <c r="G4" s="75" t="str">
+        <v>10.1.1.6</v>
+      </c>
+      <c r="H4" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I4,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H4" s="75" t="str">
+      <c r="I4" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I4" s="75" t="str">
+      <c r="J4" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J4" s="75" t="str">
+      <c r="K4" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K4" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L4,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L4,".blob.core.windows.net/osdisks/",C4,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsadcs02.vhd</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="str">
         <f>'Virtual Machines'!J5</f>
         <v>SouthCentralUS</v>
@@ -5768,35 +5778,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E5" s="75" t="str">
+        <f>'Virtual Machines'!M5</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F5" s="75" t="str">
         <f>'Virtual Machines'!N5</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F5" s="75" t="str">
+      <c r="G5" s="75" t="str">
         <f>'Virtual Machines'!O5</f>
-        <v>10.0.1.7</v>
-      </c>
-      <c r="G5" s="75" t="str">
+        <v>10.1.1.7</v>
+      </c>
+      <c r="H5" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I5,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H5" s="75" t="str">
+      <c r="I5" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I5" s="75" t="str">
+      <c r="J5" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J5" s="75" t="str">
+      <c r="K5" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K5" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L5,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L5,".blob.core.windows.net/osdisks/",C5,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/mgmtrdsh01.vhd</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="str">
         <f>'Virtual Machines'!J6</f>
         <v>SouthCentralUS</v>
@@ -5814,35 +5828,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E6" s="75" t="str">
+        <f>'Virtual Machines'!M6</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F6" s="75" t="str">
         <f>'Virtual Machines'!N6</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F6" s="75" t="str">
+      <c r="G6" s="75" t="str">
         <f>'Virtual Machines'!O6</f>
-        <v>10.0.1.8</v>
-      </c>
-      <c r="G6" s="75" t="str">
+        <v>10.1.1.8</v>
+      </c>
+      <c r="H6" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I6,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="H6" s="75" t="str">
+      <c r="I6" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="I6" s="75" t="str">
+      <c r="J6" s="75" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="J6" s="75" t="str">
+      <c r="K6" s="75" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="K6" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L6,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L6,".blob.core.windows.net/osdisks/",C6,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucssqls0101.vhd</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="str">
         <f>'Virtual Machines'!J7</f>
         <v>SouthCentralUS</v>
@@ -5860,35 +5878,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E7" s="75" t="str">
+        <f>'Virtual Machines'!M7</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F7" s="75" t="str">
         <f>'Virtual Machines'!N7</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F7" s="75" t="str">
+      <c r="G7" s="75" t="str">
         <f>'Virtual Machines'!O7</f>
-        <v>10.0.1.9</v>
-      </c>
-      <c r="G7" s="75" t="str">
+        <v>10.1.1.9</v>
+      </c>
+      <c r="H7" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I7,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H7" s="75" t="str">
+      <c r="I7" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I7" s="75" t="str">
+      <c r="J7" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J7" s="75" t="str">
+      <c r="K7" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K7" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L7,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L7,".blob.core.windows.net/osdisks/",C7,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucssccm01.vhd</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="75" t="str">
         <f>'Virtual Machines'!J8</f>
         <v>SouthCentralUS</v>
@@ -5906,35 +5928,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E8" s="75" t="str">
+        <f>'Virtual Machines'!M8</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F8" s="75" t="str">
         <f>'Virtual Machines'!N8</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F8" s="75" t="str">
+      <c r="G8" s="75" t="str">
         <f>'Virtual Machines'!O8</f>
-        <v>10.0.1.10</v>
-      </c>
-      <c r="G8" s="75" t="str">
+        <v>10.1.1.10</v>
+      </c>
+      <c r="H8" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I8,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H8" s="75" t="str">
+      <c r="I8" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I8" s="75" t="str">
+      <c r="J8" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J8" s="75" t="str">
+      <c r="K8" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K8" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L8,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L8,".blob.core.windows.net/osdisks/",C8,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsscor01.vhd</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="str">
         <f>'Virtual Machines'!J9</f>
         <v>SouthCentralUS</v>
@@ -5952,35 +5978,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E9" s="75" t="str">
+        <f>'Virtual Machines'!M9</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F9" s="75" t="str">
         <f>'Virtual Machines'!N9</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="F9" s="75" t="str">
+      <c r="G9" s="75" t="str">
         <f>'Virtual Machines'!O9</f>
-        <v>10.0.1.11</v>
-      </c>
-      <c r="G9" s="75" t="str">
+        <v>10.1.1.11</v>
+      </c>
+      <c r="H9" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I9,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H9" s="75" t="str">
+      <c r="I9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I9" s="75" t="str">
+      <c r="J9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J9" s="75" t="str">
+      <c r="K9" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K9" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L9,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L9,".blob.core.windows.net/osdisks/",C9,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsscsm01.vhd</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="str">
         <f>'Virtual Machines'!J10</f>
         <v>SouthCentralUS</v>
@@ -5998,35 +6028,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E10" s="75" t="str">
+        <f>'Virtual Machines'!M10</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F10" s="75" t="str">
         <f>'Virtual Machines'!N10</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="F10" s="75" t="str">
+      <c r="G10" s="75" t="str">
         <f>'Virtual Machines'!O10</f>
-        <v>10.0.2.4</v>
-      </c>
-      <c r="G10" s="75" t="str">
+        <v>10.1.2.4</v>
+      </c>
+      <c r="H10" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I10,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H10" s="75" t="str">
+      <c r="I10" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I10" s="75" t="str">
+      <c r="J10" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J10" s="75" t="str">
+      <c r="K10" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K10" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L10,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L10,".blob.core.windows.net/osdisks/",C10,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/useradds01.vhd</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="str">
         <f>'Virtual Machines'!J11</f>
         <v>SouthCentralUS</v>
@@ -6044,35 +6078,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E11" s="75" t="str">
+        <f>'Virtual Machines'!M11</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F11" s="75" t="str">
         <f>'Virtual Machines'!N11</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="F11" s="75" t="str">
+      <c r="G11" s="75" t="str">
         <f>'Virtual Machines'!O11</f>
-        <v>10.0.2.5</v>
-      </c>
-      <c r="G11" s="75" t="str">
+        <v>10.1.2.5</v>
+      </c>
+      <c r="H11" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I11,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H11" s="75" t="str">
+      <c r="I11" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I11" s="75" t="str">
+      <c r="J11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J11" s="75" t="str">
+      <c r="K11" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K11" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L11,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L11,".blob.core.windows.net/osdisks/",C11,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/usermail01.vhd</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="str">
         <f>'Virtual Machines'!J12</f>
         <v>SouthCentralUS</v>
@@ -6090,35 +6128,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E12" s="75" t="str">
+        <f>'Virtual Machines'!M12</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F12" s="75" t="str">
         <f>'Virtual Machines'!N12</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="F12" s="75" t="str">
+      <c r="G12" s="75" t="str">
         <f>'Virtual Machines'!O12</f>
-        <v>10.0.2.6</v>
-      </c>
-      <c r="G12" s="75" t="str">
+        <v>10.1.2.6</v>
+      </c>
+      <c r="H12" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I12,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H12" s="75" t="str">
+      <c r="I12" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I12" s="75" t="str">
+      <c r="J12" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J12" s="75" t="str">
+      <c r="K12" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K12" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L12,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L12,".blob.core.windows.net/osdisks/",C12,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/useraadc01.vhd</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="75" t="str">
         <f>'Virtual Machines'!J13</f>
         <v>SouthCentralUS</v>
@@ -6136,35 +6178,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E13" s="75" t="str">
+        <f>'Virtual Machines'!M13</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F13" s="75" t="str">
         <f>'Virtual Machines'!N13</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="F13" s="75" t="str">
+      <c r="G13" s="75" t="str">
         <f>'Virtual Machines'!O13</f>
-        <v>10.0.2.7</v>
-      </c>
-      <c r="G13" s="75" t="str">
+        <v>10.1.2.7</v>
+      </c>
+      <c r="H13" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I13,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H13" s="75" t="str">
+      <c r="I13" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I13" s="75" t="str">
+      <c r="J13" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J13" s="75" t="str">
+      <c r="K13" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K13" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L13,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L13,".blob.core.windows.net/osdisks/",C13,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/useradfs01.vhd</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="75" t="str">
         <f>'Virtual Machines'!J14</f>
         <v>SouthCentralUS</v>
@@ -6182,35 +6228,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E14" s="75" t="str">
+        <f>'Virtual Machines'!M14</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F14" s="75" t="str">
         <f>'Virtual Machines'!N14</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="F14" s="75" t="str">
+      <c r="G14" s="75" t="str">
         <f>'Virtual Machines'!O14</f>
-        <v>10.0.2.8</v>
-      </c>
-      <c r="G14" s="75" t="str">
+        <v>10.1.2.8</v>
+      </c>
+      <c r="H14" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I14,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsDesktop:Windows-10:RS3-Pro</v>
       </c>
-      <c r="H14" s="75" t="str">
+      <c r="I14" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsDesktop</v>
       </c>
-      <c r="I14" s="75" t="str">
+      <c r="J14" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Windows-10</v>
       </c>
-      <c r="J14" s="75" t="str">
+      <c r="K14" s="75" t="str">
         <f t="shared" si="2"/>
         <v>RS3-Pro</v>
       </c>
-      <c r="K14" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L14,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L14,".blob.core.windows.net/osdisks/",C14,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/userclient.vhd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="str">
         <f>'Virtual Machines'!J15</f>
         <v>SouthCentralUS</v>
@@ -6228,35 +6278,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E15" s="75" t="str">
+        <f>'Virtual Machines'!M15</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F15" s="75" t="str">
         <f>'Virtual Machines'!N15</f>
         <v>userdmz-scu-1</v>
       </c>
-      <c r="F15" s="75" t="str">
+      <c r="G15" s="75" t="str">
         <f>'Virtual Machines'!O15</f>
-        <v>10.0.2.8</v>
-      </c>
-      <c r="G15" s="75" t="str">
+        <v>10.1.3.4</v>
+      </c>
+      <c r="H15" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I15,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H15" s="75" t="str">
+      <c r="I15" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I15" s="75" t="str">
+      <c r="J15" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J15" s="75" t="str">
+      <c r="K15" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K15" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L15,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L15,".blob.core.windows.net/osdisks/",C15,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/userawap01.vhd</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="str">
         <f>'Virtual Machines'!J16</f>
         <v>SouthCentralUS</v>
@@ -6274,35 +6328,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E16" s="75" t="str">
+        <f>'Virtual Machines'!M16</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F16" s="75" t="str">
         <f>'Virtual Machines'!N16</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F16" s="75" t="str">
+      <c r="G16" s="75" t="str">
         <f>'Virtual Machines'!O16</f>
-        <v>10.0.4.4</v>
-      </c>
-      <c r="G16" s="75" t="str">
+        <v>10.1.4.4</v>
+      </c>
+      <c r="H16" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I16,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H16" s="75" t="str">
+      <c r="I16" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I16" s="75" t="str">
+      <c r="J16" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J16" s="75" t="str">
+      <c r="K16" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K16" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L16,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L16,".blob.core.windows.net/osdisks/",C16,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamadds01.vhd</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="str">
         <f>'Virtual Machines'!J17</f>
         <v>SouthCentralUS</v>
@@ -6320,35 +6378,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E17" s="75" t="str">
+        <f>'Virtual Machines'!M17</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F17" s="75" t="str">
         <f>'Virtual Machines'!N17</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F17" s="75" t="str">
+      <c r="G17" s="75" t="str">
         <f>'Virtual Machines'!O17</f>
-        <v>10.0.4.5</v>
-      </c>
-      <c r="G17" s="75" t="str">
+        <v>10.1.4.5</v>
+      </c>
+      <c r="H17" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I17,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H17" s="75" t="str">
+      <c r="I17" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I17" s="75" t="str">
+      <c r="J17" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J17" s="75" t="str">
+      <c r="K17" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K17" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L17,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L17,".blob.core.windows.net/osdisks/",C17,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamadfs01.vhd</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="str">
         <f>'Virtual Machines'!J18</f>
         <v>SouthCentralUS</v>
@@ -6366,35 +6428,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E18" s="75" t="str">
+        <f>'Virtual Machines'!M18</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F18" s="75" t="str">
         <f>'Virtual Machines'!N18</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F18" s="75" t="str">
+      <c r="G18" s="75" t="str">
         <f>'Virtual Machines'!O18</f>
-        <v>10.0.4.6</v>
-      </c>
-      <c r="G18" s="75" t="str">
+        <v>10.1.4.6</v>
+      </c>
+      <c r="H18" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I18,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="H18" s="75" t="str">
+      <c r="I18" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="I18" s="75" t="str">
+      <c r="J18" s="75" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="J18" s="75" t="str">
+      <c r="K18" s="75" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="K18" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L18,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L18,".blob.core.windows.net/osdisks/",C18,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamsqls01.vhd</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="75" t="str">
         <f>'Virtual Machines'!J19</f>
         <v>SouthCentralUS</v>
@@ -6412,35 +6478,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E19" s="75" t="str">
+        <f>'Virtual Machines'!M19</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F19" s="75" t="str">
         <f>'Virtual Machines'!N19</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F19" s="75" t="str">
+      <c r="G19" s="75" t="str">
         <f>'Virtual Machines'!O19</f>
-        <v>10.0.4.7</v>
-      </c>
-      <c r="G19" s="75" t="str">
+        <v>10.1.4.7</v>
+      </c>
+      <c r="H19" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I19,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H19" s="75" t="str">
+      <c r="I19" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I19" s="75" t="str">
+      <c r="J19" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J19" s="75" t="str">
+      <c r="K19" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K19" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L19,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L19,".blob.core.windows.net/osdisks/",C19,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamserv01.vhd</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="75" t="str">
         <f>'Virtual Machines'!J20</f>
         <v>SouthCentralUS</v>
@@ -6458,35 +6528,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E20" s="75" t="str">
+        <f>'Virtual Machines'!M20</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F20" s="75" t="str">
         <f>'Virtual Machines'!N20</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F20" s="75" t="str">
+      <c r="G20" s="75" t="str">
         <f>'Virtual Machines'!O20</f>
-        <v>10.0.4.8</v>
-      </c>
-      <c r="G20" s="75" t="str">
+        <v>10.1.4.8</v>
+      </c>
+      <c r="H20" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I20,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H20" s="75" t="str">
+      <c r="I20" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I20" s="75" t="str">
+      <c r="J20" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J20" s="75" t="str">
+      <c r="K20" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K20" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L20,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L20,".blob.core.windows.net/osdisks/",C20,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamspsv01.vhd</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="75" t="str">
         <f>'Virtual Machines'!J21</f>
         <v>SouthCentralUS</v>
@@ -6504,35 +6578,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E21" s="75" t="str">
+        <f>'Virtual Machines'!M21</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F21" s="75" t="str">
         <f>'Virtual Machines'!N21</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F21" s="75" t="str">
+      <c r="G21" s="75" t="str">
         <f>'Virtual Machines'!O21</f>
-        <v>10.0.4.9</v>
-      </c>
-      <c r="G21" s="75" t="str">
+        <v>10.1.4.9</v>
+      </c>
+      <c r="H21" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I21,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H21" s="75" t="str">
+      <c r="I21" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I21" s="75" t="str">
+      <c r="J21" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J21" s="75" t="str">
+      <c r="K21" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K21" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L21,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L21,".blob.core.windows.net/osdisks/",C21,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamport01.vhd</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="75" t="str">
         <f>'Virtual Machines'!J22</f>
         <v>SouthCentralUS</v>
@@ -6550,35 +6628,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E22" s="75" t="str">
+        <f>'Virtual Machines'!M22</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F22" s="75" t="str">
         <f>'Virtual Machines'!N22</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F22" s="75" t="str">
+      <c r="G22" s="75" t="str">
         <f>'Virtual Machines'!O22</f>
-        <v>10.0.4.10</v>
-      </c>
-      <c r="G22" s="75" t="str">
+        <v>10.1.4.10</v>
+      </c>
+      <c r="H22" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I22,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H22" s="75" t="str">
+      <c r="I22" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I22" s="75" t="str">
+      <c r="J22" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J22" s="75" t="str">
+      <c r="K22" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K22" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L22,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L22,".blob.core.windows.net/osdisks/",C22,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamscor01.vhd</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="str">
         <f>'Virtual Machines'!J23</f>
         <v>SouthCentralUS</v>
@@ -6596,32 +6678,36 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E23" s="75" t="str">
+        <f>'Virtual Machines'!M23</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F23" s="75" t="str">
         <f>'Virtual Machines'!N23</f>
         <v>siamdmz-scu-1</v>
       </c>
-      <c r="F23" s="75" t="str">
+      <c r="G23" s="75" t="str">
         <f>'Virtual Machines'!O23</f>
-        <v>10.0.5.4</v>
-      </c>
-      <c r="G23" s="75" t="str">
+        <v>10.1.5.4</v>
+      </c>
+      <c r="H23" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!I23,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H23" s="75" t="str">
+      <c r="I23" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I23" s="75" t="str">
+      <c r="J23" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J23" s="75" t="str">
+      <c r="K23" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K23" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L23,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
+      <c r="L23" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L23,".blob.core.windows.net/osdisks/",C23,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamawap01.vhd</v>
       </c>
     </row>
   </sheetData>
@@ -6653,27 +6739,27 @@
         <v>6</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6717,7 +6803,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6735,16 +6821,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>4</v>
@@ -6752,102 +6838,102 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>278</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>293</v>
-      </c>
       <c r="F4" s="34" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -6947,7 +7033,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6978,22 +7064,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>2</v>
@@ -7002,72 +7088,72 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="78" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="R1" s="78" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="S1" s="78" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="T1" s="78" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G2" s="51">
         <f>VLOOKUP(F2,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7078,28 +7164,28 @@
         <v>4</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="53">
         <f>$T2/730</f>
@@ -7118,34 +7204,34 @@
         <v>36.04</v>
       </c>
       <c r="U2" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G3" s="51">
         <f>VLOOKUP(F3,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7156,28 +7242,28 @@
         <v>2</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q23" si="0">$T3/730</f>
@@ -7196,36 +7282,36 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G4" s="51">
         <f>VLOOKUP(F4,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7236,28 +7322,28 @@
         <v>2</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="0"/>
@@ -7276,36 +7362,36 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G5" s="69">
         <f>VLOOKUP(F5,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7316,28 +7402,28 @@
         <v>2</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L5" s="66" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="71">
         <f t="shared" si="0"/>
@@ -7356,34 +7442,34 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U5" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G6" s="51">
         <f>VLOOKUP(F6,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7394,28 +7480,28 @@
         <v>16</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="0"/>
@@ -7434,34 +7520,34 @@
         <v>126.98</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G7" s="51">
         <f>VLOOKUP(F7,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7472,28 +7558,28 @@
         <v>8</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="53">
         <f t="shared" si="0"/>
@@ -7512,34 +7598,34 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G8" s="51">
         <f>VLOOKUP(F8,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7550,28 +7636,28 @@
         <v>8</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="0"/>
@@ -7590,34 +7676,34 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V8" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G9" s="69">
         <f>VLOOKUP(F9,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7628,28 +7714,28 @@
         <v>8</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L9" s="66" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="N9" s="70" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="O9" s="67" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="P9" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="71">
         <f t="shared" si="0"/>
@@ -7668,36 +7754,36 @@
         <v>67.650000000000006</v>
       </c>
       <c r="U9" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V9" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G10" s="51">
         <f>VLOOKUP(F10,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7708,28 +7794,28 @@
         <v>2</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="0"/>
@@ -7748,34 +7834,34 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V10" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G11" s="51">
         <f>VLOOKUP(F11,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7786,28 +7872,28 @@
         <v>4</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="0"/>
@@ -7826,28 +7912,28 @@
         <v>36.04</v>
       </c>
       <c r="U11" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G12" s="51">
         <f>VLOOKUP(F12,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7858,28 +7944,28 @@
         <v>4</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="0"/>
@@ -7898,18 +7984,18 @@
         <v>36.04</v>
       </c>
       <c r="U12" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V12" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>5</v>
@@ -7918,10 +8004,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G13" s="51">
         <f>VLOOKUP(F13,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -7932,28 +8018,28 @@
         <v>4</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="0"/>
@@ -7972,28 +8058,28 @@
         <v>36.04</v>
       </c>
       <c r="U13" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V13" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G14" s="51">
         <f>VLOOKUP(F14,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8007,25 +8093,25 @@
         <v>8</v>
       </c>
       <c r="J14" s="59" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="0"/>
@@ -8044,17 +8130,17 @@
         <v>36.04</v>
       </c>
       <c r="U14" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="66" t="s">
@@ -8062,10 +8148,10 @@
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G15" s="69">
         <f>VLOOKUP(F15,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8076,28 +8162,28 @@
         <v>2</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="M15" s="66" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N15" s="70" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="O15" s="66" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P15" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="71">
         <f t="shared" si="0"/>
@@ -8116,32 +8202,32 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U15" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G16" s="51">
         <f>VLOOKUP(F16,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8152,28 +8238,28 @@
         <v>4</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J16" s="59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="0"/>
@@ -8192,20 +8278,20 @@
         <v>36.04</v>
       </c>
       <c r="U16" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V16" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>5</v>
@@ -8217,7 +8303,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G17" s="51">
         <f>VLOOKUP(F17,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8228,28 +8314,28 @@
         <v>2</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="0"/>
@@ -8268,15 +8354,15 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U17" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V17" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37" t="s">
@@ -8287,7 +8373,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G18" s="51">
         <f>VLOOKUP(F18,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8298,28 +8384,28 @@
         <v>2</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="0"/>
@@ -8338,31 +8424,31 @@
         <v>17.739999999999998</v>
       </c>
       <c r="U18" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="66" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G19" s="69">
         <f>VLOOKUP(F19,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8373,28 +8459,28 @@
         <v>4</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J19" s="68" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L19" s="66" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M19" s="66" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="O19" s="66" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="P19" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="71">
         <f t="shared" si="0"/>
@@ -8413,28 +8499,28 @@
         <v>36.04</v>
       </c>
       <c r="U19" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V19" s="73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G20" s="51">
         <f>VLOOKUP(F20,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8445,28 +8531,28 @@
         <v>16</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J20" s="59" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="53">
         <f t="shared" si="0"/>
@@ -8485,30 +8571,30 @@
         <v>126.98</v>
       </c>
       <c r="U20" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V20" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G21" s="51">
         <f>VLOOKUP(F21,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8519,28 +8605,28 @@
         <v>4</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J21" s="59" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="53">
         <f t="shared" si="0"/>
@@ -8559,30 +8645,30 @@
         <v>36.04</v>
       </c>
       <c r="U21" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V21" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G22" s="51">
         <f>VLOOKUP(F22,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8593,28 +8679,28 @@
         <v>4</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J22" s="59" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="53">
         <f t="shared" si="0"/>
@@ -8633,28 +8719,28 @@
         <v>36.04</v>
       </c>
       <c r="U22" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V22" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="42" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G23" s="52">
         <f>VLOOKUP(F23,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -8665,28 +8751,28 @@
         <v>4</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="P23" s="42" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="54">
         <f t="shared" si="0"/>
@@ -8705,10 +8791,10 @@
         <v>36.04</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V23" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8725,20 +8811,20 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="78" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="R24" s="78" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="S24" s="78" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="T24" s="78" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="U24" s="64"/>
       <c r="V24" s="64"/>
@@ -8757,7 +8843,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="4">
         <f>SUM(Q2:Q23)</f>
@@ -8790,7 +8876,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="5">
         <f>SUM(Q2:Q15)</f>
@@ -8811,7 +8897,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8823,10 +8909,10 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="2"/>
       <c r="O27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="63"/>
       <c r="Q27" s="10">
@@ -8858,8 +8944,8 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -8880,28 +8966,28 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L30" s="32"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L31" s="32"/>
-      <c r="M31" s="19"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L32" s="32"/>
-      <c r="M32" s="19"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L33" s="32"/>
-      <c r="M33" s="19"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -8948,63 +9034,67 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="str">
         <f>'Virtual Machines (Split)'!J2</f>
         <v>EastUS</v>
@@ -9022,35 +9112,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E2" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M2</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F2" s="76" t="str">
         <f>'Virtual Machines (Split)'!N2</f>
         <v>eucslan-eus-1</v>
       </c>
-      <c r="F2" s="75" t="str">
+      <c r="G2" s="75" t="str">
         <f>'Virtual Machines (Split)'!O2</f>
-        <v>10.0.1.4</v>
-      </c>
-      <c r="G2" s="75" t="str">
+        <v>10.1.1.4</v>
+      </c>
+      <c r="H2" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I2,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H2" s="75" t="str">
-        <f>LEFT(G2, SEARCH(":",G2,1)-1)</f>
+      <c r="I2" s="75" t="str">
+        <f>LEFT(H2, SEARCH(":",H2,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I2" s="75" t="str">
-        <f>MID(G2, SEARCH(":",G2) + 1, SEARCH(":",G2,SEARCH(":",G2)+1) - SEARCH(":",G2) - 1)</f>
+      <c r="J2" s="75" t="str">
+        <f>MID(H2, SEARCH(":",H2) + 1, SEARCH(":",H2,SEARCH(":",H2)+1) - SEARCH(":",H2) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="J2" s="75" t="str">
-        <f>RIGHT(G2,LEN(G2) - SEARCH(":", G2, SEARCH(":", G2) + 1))</f>
+      <c r="K2" s="75" t="str">
+        <f>RIGHT(H2,LEN(H2) - SEARCH(":", H2, SEARCH(":", H2) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K2" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L2,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L2,".blob.core.windows.net/osdisks/",C2,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/eucsadds01.vhd</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="75" t="str">
         <f>'Virtual Machines (Split)'!J3</f>
         <v>EastUS</v>
@@ -9068,35 +9162,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E3" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M3</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F3" s="76" t="str">
         <f>'Virtual Machines (Split)'!N3</f>
         <v>eucslan-eus-1</v>
       </c>
-      <c r="F3" s="75" t="str">
+      <c r="G3" s="75" t="str">
         <f>'Virtual Machines (Split)'!O3</f>
-        <v>10.0.1.5</v>
-      </c>
-      <c r="G3" s="75" t="str">
+        <v>10.1.1.5</v>
+      </c>
+      <c r="H3" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I3,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H3" s="75" t="str">
-        <f t="shared" ref="H3:H23" si="0">LEFT(G3, SEARCH(":",G3,1)-1)</f>
+      <c r="I3" s="75" t="str">
+        <f t="shared" ref="I3:I23" si="0">LEFT(H3, SEARCH(":",H3,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I3" s="75" t="str">
-        <f t="shared" ref="I3:I23" si="1">MID(G3, SEARCH(":",G3) + 1, SEARCH(":",G3,SEARCH(":",G3)+1) - SEARCH(":",G3) - 1)</f>
+      <c r="J3" s="75" t="str">
+        <f t="shared" ref="J3:J23" si="1">MID(H3, SEARCH(":",H3) + 1, SEARCH(":",H3,SEARCH(":",H3)+1) - SEARCH(":",H3) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="J3" s="75" t="str">
-        <f t="shared" ref="J3:J23" si="2">RIGHT(G3,LEN(G3) - SEARCH(":", G3, SEARCH(":", G3) + 1))</f>
+      <c r="K3" s="75" t="str">
+        <f t="shared" ref="K3:K23" si="2">RIGHT(H3,LEN(H3) - SEARCH(":", H3, SEARCH(":", H3) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K3" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L3,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L3,".blob.core.windows.net/osdisks/",C3,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/eucsadcs01.vhd</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="str">
         <f>'Virtual Machines (Split)'!J4</f>
         <v>EastUS</v>
@@ -9114,35 +9212,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E4" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M4</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F4" s="76" t="str">
         <f>'Virtual Machines (Split)'!N4</f>
         <v>eucslan-eus-1</v>
       </c>
-      <c r="F4" s="75" t="str">
+      <c r="G4" s="75" t="str">
         <f>'Virtual Machines (Split)'!O4</f>
-        <v>10.0.1.6</v>
-      </c>
-      <c r="G4" s="75" t="str">
+        <v>10.1.1.6</v>
+      </c>
+      <c r="H4" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I4,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H4" s="75" t="str">
+      <c r="I4" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I4" s="75" t="str">
+      <c r="J4" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J4" s="75" t="str">
+      <c r="K4" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K4" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L4,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L4,".blob.core.windows.net/osdisks/",C4,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/eucsadcs02.vhd</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="str">
         <f>'Virtual Machines (Split)'!J5</f>
         <v>EastUS</v>
@@ -9160,35 +9262,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E5" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M5</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F5" s="76" t="str">
         <f>'Virtual Machines (Split)'!N5</f>
         <v>eucslan-eus-1</v>
       </c>
-      <c r="F5" s="75" t="str">
+      <c r="G5" s="75" t="str">
         <f>'Virtual Machines (Split)'!O5</f>
-        <v>10.0.1.7</v>
-      </c>
-      <c r="G5" s="75" t="str">
+        <v>10.1.1.7</v>
+      </c>
+      <c r="H5" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I5,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H5" s="75" t="str">
+      <c r="I5" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I5" s="75" t="str">
+      <c r="J5" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J5" s="75" t="str">
+      <c r="K5" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K5" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L5,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L5,".blob.core.windows.net/osdisks/",C5,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/mgmtrdsh01.vhd</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="str">
         <f>'Virtual Machines (Split)'!J6</f>
         <v>SouthEastAsia</v>
@@ -9206,35 +9312,39 @@
         <v>Standard_B4ms</v>
       </c>
       <c r="E6" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M6</f>
+        <v>ttplab1-sea-vnet-1</v>
+      </c>
+      <c r="F6" s="76" t="str">
         <f>'Virtual Machines (Split)'!N6</f>
         <v>eucslan-sea-1</v>
       </c>
-      <c r="F6" s="75" t="str">
+      <c r="G6" s="75" t="str">
         <f>'Virtual Machines (Split)'!O6</f>
-        <v>10.1.1.4</v>
-      </c>
-      <c r="G6" s="75" t="str">
+        <v>10.2.1.4</v>
+      </c>
+      <c r="H6" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I6,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="H6" s="75" t="str">
+      <c r="I6" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="I6" s="75" t="str">
+      <c r="J6" s="75" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="J6" s="75" t="str">
+      <c r="K6" s="75" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="K6" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L6,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L6,".blob.core.windows.net/osdisks/",C6,".vhd")</f>
+        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/eucssqls0101.vhd</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="str">
         <f>'Virtual Machines (Split)'!J7</f>
         <v>SouthEastAsia</v>
@@ -9252,35 +9362,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E7" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M7</f>
+        <v>ttplab1-sea-vnet-1</v>
+      </c>
+      <c r="F7" s="76" t="str">
         <f>'Virtual Machines (Split)'!N7</f>
         <v>eucslan-sea-1</v>
       </c>
-      <c r="F7" s="75" t="str">
+      <c r="G7" s="75" t="str">
         <f>'Virtual Machines (Split)'!O7</f>
-        <v>10.1.1.5</v>
-      </c>
-      <c r="G7" s="75" t="str">
+        <v>10.2.1.5</v>
+      </c>
+      <c r="H7" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I7,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H7" s="75" t="str">
+      <c r="I7" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I7" s="75" t="str">
+      <c r="J7" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J7" s="75" t="str">
+      <c r="K7" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K7" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L7,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L7,".blob.core.windows.net/osdisks/",C7,".vhd")</f>
+        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/eucssccm01.vhd</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="75" t="str">
         <f>'Virtual Machines (Split)'!J8</f>
         <v>SouthEastAsia</v>
@@ -9298,35 +9412,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E8" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M8</f>
+        <v>ttplab1-sea-vnet-1</v>
+      </c>
+      <c r="F8" s="76" t="str">
         <f>'Virtual Machines (Split)'!N8</f>
         <v>eucslan-sea-1</v>
       </c>
-      <c r="F8" s="75" t="str">
+      <c r="G8" s="75" t="str">
         <f>'Virtual Machines (Split)'!O8</f>
-        <v>10.1.1.6</v>
-      </c>
-      <c r="G8" s="75" t="str">
+        <v>10.2.1.6</v>
+      </c>
+      <c r="H8" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I8,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H8" s="75" t="str">
+      <c r="I8" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I8" s="75" t="str">
+      <c r="J8" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J8" s="75" t="str">
+      <c r="K8" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K8" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L8,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L8,".blob.core.windows.net/osdisks/",C8,".vhd")</f>
+        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/eucsscor01.vhd</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="str">
         <f>'Virtual Machines (Split)'!J9</f>
         <v>SouthEastAsia</v>
@@ -9344,35 +9462,39 @@
         <v>Standard_B2ms</v>
       </c>
       <c r="E9" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M9</f>
+        <v>ttplab1-sea-vnet-1</v>
+      </c>
+      <c r="F9" s="76" t="str">
         <f>'Virtual Machines (Split)'!N9</f>
         <v>eucslan-sea-1</v>
       </c>
-      <c r="F9" s="75" t="str">
+      <c r="G9" s="75" t="str">
         <f>'Virtual Machines (Split)'!O9</f>
-        <v>10.1.1.7</v>
-      </c>
-      <c r="G9" s="75" t="str">
+        <v>10.2.1.7</v>
+      </c>
+      <c r="H9" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I9,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H9" s="75" t="str">
+      <c r="I9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I9" s="75" t="str">
+      <c r="J9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J9" s="75" t="str">
+      <c r="K9" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K9" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L9,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L9,".blob.core.windows.net/osdisks/",C9,".vhd")</f>
+        <v>https://ttplab1vmstoresea1.blob.core.windows.net/osdisks/eucsscsm01.vhd</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="str">
         <f>'Virtual Machines (Split)'!J10</f>
         <v>WestUS2</v>
@@ -9390,35 +9512,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E10" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M10</f>
+        <v>ttplab1-wu2-vnet-1</v>
+      </c>
+      <c r="F10" s="76" t="str">
         <f>'Virtual Machines (Split)'!N10</f>
         <v>userlan-wu2-1</v>
       </c>
-      <c r="F10" s="75" t="str">
+      <c r="G10" s="75" t="str">
         <f>'Virtual Machines (Split)'!O10</f>
-        <v>10.2.1.4</v>
-      </c>
-      <c r="G10" s="75" t="str">
+        <v>10.3.1.4</v>
+      </c>
+      <c r="H10" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I10,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H10" s="75" t="str">
+      <c r="I10" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I10" s="75" t="str">
+      <c r="J10" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J10" s="75" t="str">
+      <c r="K10" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K10" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L10,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L10,".blob.core.windows.net/osdisks/",C10,".vhd")</f>
+        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/useradds01.vhd</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="str">
         <f>'Virtual Machines (Split)'!J11</f>
         <v>WestUS2</v>
@@ -9436,35 +9562,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E11" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M11</f>
+        <v>ttplab1-wu2-vnet-1</v>
+      </c>
+      <c r="F11" s="76" t="str">
         <f>'Virtual Machines (Split)'!N11</f>
         <v>userlan-wu2-1</v>
       </c>
-      <c r="F11" s="75" t="str">
+      <c r="G11" s="75" t="str">
         <f>'Virtual Machines (Split)'!O11</f>
-        <v>10.2.1.5</v>
-      </c>
-      <c r="G11" s="75" t="str">
+        <v>10.3.1.5</v>
+      </c>
+      <c r="H11" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I11,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H11" s="75" t="str">
+      <c r="I11" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I11" s="75" t="str">
+      <c r="J11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J11" s="75" t="str">
+      <c r="K11" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K11" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L11,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L11,".blob.core.windows.net/osdisks/",C11,".vhd")</f>
+        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/usermail01.vhd</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="str">
         <f>'Virtual Machines (Split)'!J12</f>
         <v>WestUS2</v>
@@ -9482,35 +9612,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E12" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M12</f>
+        <v>ttplab1-wu2-vnet-1</v>
+      </c>
+      <c r="F12" s="76" t="str">
         <f>'Virtual Machines (Split)'!N12</f>
         <v>userlan-wu2-1</v>
       </c>
-      <c r="F12" s="75" t="str">
+      <c r="G12" s="75" t="str">
         <f>'Virtual Machines (Split)'!O12</f>
-        <v>10.2.1.6</v>
-      </c>
-      <c r="G12" s="75" t="str">
+        <v>10.3.1.6</v>
+      </c>
+      <c r="H12" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I12,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H12" s="75" t="str">
+      <c r="I12" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I12" s="75" t="str">
+      <c r="J12" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J12" s="75" t="str">
+      <c r="K12" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K12" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L12,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L12,".blob.core.windows.net/osdisks/",C12,".vhd")</f>
+        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/useraadc01.vhd</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="75" t="str">
         <f>'Virtual Machines (Split)'!J13</f>
         <v>WestUS2</v>
@@ -9528,35 +9662,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E13" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M13</f>
+        <v>ttplab1-wu2-vnet-1</v>
+      </c>
+      <c r="F13" s="76" t="str">
         <f>'Virtual Machines (Split)'!N13</f>
         <v>userlan-wu2-1</v>
       </c>
-      <c r="F13" s="75" t="str">
+      <c r="G13" s="75" t="str">
         <f>'Virtual Machines (Split)'!O13</f>
-        <v>10.2.1.7</v>
-      </c>
-      <c r="G13" s="75" t="str">
+        <v>10.3.1.7</v>
+      </c>
+      <c r="H13" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I13,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H13" s="75" t="str">
+      <c r="I13" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I13" s="75" t="str">
+      <c r="J13" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J13" s="75" t="str">
+      <c r="K13" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K13" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L13,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L13,".blob.core.windows.net/osdisks/",C13,".vhd")</f>
+        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/useradfs01.vhd</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="75" t="str">
         <f>'Virtual Machines (Split)'!J14</f>
         <v>WestUS2</v>
@@ -9574,35 +9712,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E14" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M14</f>
+        <v>ttplab1-wu2-vnet-1</v>
+      </c>
+      <c r="F14" s="76" t="str">
         <f>'Virtual Machines (Split)'!N14</f>
         <v>userlan-wu2-1</v>
       </c>
-      <c r="F14" s="75" t="str">
+      <c r="G14" s="75" t="str">
         <f>'Virtual Machines (Split)'!O14</f>
-        <v>10.2.1.8</v>
-      </c>
-      <c r="G14" s="75" t="str">
+        <v>10.3.1.8</v>
+      </c>
+      <c r="H14" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I14,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsDesktop:Windows-10:RS3-Pro</v>
       </c>
-      <c r="H14" s="75" t="str">
+      <c r="I14" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsDesktop</v>
       </c>
-      <c r="I14" s="75" t="str">
+      <c r="J14" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Windows-10</v>
       </c>
-      <c r="J14" s="75" t="str">
+      <c r="K14" s="75" t="str">
         <f t="shared" si="2"/>
         <v>RS3-Pro</v>
       </c>
-      <c r="K14" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L14,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L14,".blob.core.windows.net/osdisks/",C14,".vhd")</f>
+        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/userclient.vhd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="str">
         <f>'Virtual Machines (Split)'!J15</f>
         <v>WestUS2</v>
@@ -9620,35 +9762,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E15" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M15</f>
+        <v>ttplab1-wu2-vnet-1</v>
+      </c>
+      <c r="F15" s="76" t="str">
         <f>'Virtual Machines (Split)'!N15</f>
         <v>userdmzwu2-1</v>
       </c>
-      <c r="F15" s="75" t="str">
+      <c r="G15" s="75" t="str">
         <f>'Virtual Machines (Split)'!O15</f>
-        <v>10.2.2.4</v>
-      </c>
-      <c r="G15" s="75" t="str">
+        <v>10.3.2.4</v>
+      </c>
+      <c r="H15" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I15,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H15" s="75" t="str">
+      <c r="I15" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I15" s="75" t="str">
+      <c r="J15" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J15" s="75" t="str">
+      <c r="K15" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K15" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L15,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L15,".blob.core.windows.net/osdisks/",C15,".vhd")</f>
+        <v>https://ttplab1vmstorewu21.blob.core.windows.net/osdisks/userawap01.vhd</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="str">
         <f>'Virtual Machines (Split)'!J16</f>
         <v>EastUS</v>
@@ -9666,35 +9812,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E16" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M16</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F16" s="76" t="str">
         <f>'Virtual Machines (Split)'!N16</f>
         <v>siamlan-eus-1</v>
       </c>
-      <c r="F16" s="75" t="str">
+      <c r="G16" s="75" t="str">
         <f>'Virtual Machines (Split)'!O16</f>
-        <v>10.0.2.4</v>
-      </c>
-      <c r="G16" s="75" t="str">
+        <v>10.1.2.4</v>
+      </c>
+      <c r="H16" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I16,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H16" s="75" t="str">
+      <c r="I16" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I16" s="75" t="str">
+      <c r="J16" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J16" s="75" t="str">
+      <c r="K16" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K16" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L16,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L16,".blob.core.windows.net/osdisks/",C16,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/siamadds01.vhd</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="str">
         <f>'Virtual Machines (Split)'!J17</f>
         <v>EastUS</v>
@@ -9712,35 +9862,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E17" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M17</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F17" s="76" t="str">
         <f>'Virtual Machines (Split)'!N17</f>
         <v>siamlan-eus-1</v>
       </c>
-      <c r="F17" s="75" t="str">
+      <c r="G17" s="75" t="str">
         <f>'Virtual Machines (Split)'!O17</f>
-        <v>10.0.2.5</v>
-      </c>
-      <c r="G17" s="75" t="str">
+        <v>10.1.2.5</v>
+      </c>
+      <c r="H17" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I17,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H17" s="75" t="str">
+      <c r="I17" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I17" s="75" t="str">
+      <c r="J17" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J17" s="75" t="str">
+      <c r="K17" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K17" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L17,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L17,".blob.core.windows.net/osdisks/",C17,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/siamadfs01.vhd</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="str">
         <f>'Virtual Machines (Split)'!J18</f>
         <v>EastUS</v>
@@ -9758,35 +9912,39 @@
         <v>Standard_B1ms</v>
       </c>
       <c r="E18" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M18</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F18" s="76" t="str">
         <f>'Virtual Machines (Split)'!N18</f>
         <v>siamdmz-eus-1</v>
       </c>
-      <c r="F18" s="75" t="str">
+      <c r="G18" s="75" t="str">
         <f>'Virtual Machines (Split)'!O18</f>
         <v>10.3.1.4</v>
       </c>
-      <c r="G18" s="75" t="str">
+      <c r="H18" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I18,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H18" s="75" t="str">
+      <c r="I18" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I18" s="75" t="str">
+      <c r="J18" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J18" s="75" t="str">
+      <c r="K18" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K18" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L18,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L18,".blob.core.windows.net/osdisks/",C18,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/siamawap01.vhd</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="75" t="str">
         <f>'Virtual Machines (Split)'!J19</f>
         <v>EastUS</v>
@@ -9804,35 +9962,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E19" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M19</f>
+        <v>ttplab1-eus-vnet-1</v>
+      </c>
+      <c r="F19" s="76" t="str">
         <f>'Virtual Machines (Split)'!N19</f>
         <v>siamlan-eus-1</v>
       </c>
-      <c r="F19" s="75" t="str">
+      <c r="G19" s="75" t="str">
         <f>'Virtual Machines (Split)'!O19</f>
-        <v>10.0.2.6</v>
-      </c>
-      <c r="G19" s="75" t="str">
+        <v>10.1.2.6</v>
+      </c>
+      <c r="H19" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I19,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H19" s="75" t="str">
+      <c r="I19" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I19" s="75" t="str">
+      <c r="J19" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J19" s="75" t="str">
+      <c r="K19" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K19" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L19,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L19,".blob.core.windows.net/osdisks/",C19,".vhd")</f>
+        <v>https://ttplab1vmstoreeus1.blob.core.windows.net/osdisks/siamspsv01.vhd</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="75" t="str">
         <f>'Virtual Machines (Split)'!J20</f>
         <v>SouthCentralUS</v>
@@ -9850,35 +10012,39 @@
         <v>Standard_B4ms</v>
       </c>
       <c r="E20" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M20</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F20" s="76" t="str">
         <f>'Virtual Machines (Split)'!N20</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F20" s="75" t="str">
+      <c r="G20" s="75" t="str">
         <f>'Virtual Machines (Split)'!O20</f>
-        <v>10.3.2.4</v>
-      </c>
-      <c r="G20" s="75" t="str">
+        <v>10.4.1.4</v>
+      </c>
+      <c r="H20" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I20,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="H20" s="75" t="str">
+      <c r="I20" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="I20" s="75" t="str">
+      <c r="J20" s="75" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="J20" s="75" t="str">
+      <c r="K20" s="75" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="K20" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L20,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L20,".blob.core.windows.net/osdisks/",C20,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamsqls01.vhd</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="75" t="str">
         <f>'Virtual Machines (Split)'!J21</f>
         <v>SouthCentralUS</v>
@@ -9896,35 +10062,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E21" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M21</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F21" s="76" t="str">
         <f>'Virtual Machines (Split)'!N21</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F21" s="75" t="str">
+      <c r="G21" s="75" t="str">
         <f>'Virtual Machines (Split)'!O21</f>
-        <v>10.3.2.5</v>
-      </c>
-      <c r="G21" s="75" t="str">
+        <v>10.4.1.5</v>
+      </c>
+      <c r="H21" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I21,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H21" s="75" t="str">
+      <c r="I21" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I21" s="75" t="str">
+      <c r="J21" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J21" s="75" t="str">
+      <c r="K21" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K21" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L21,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L21,".blob.core.windows.net/osdisks/",C21,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamserv01.vhd</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="75" t="str">
         <f>'Virtual Machines (Split)'!J22</f>
         <v>SouthCentralUS</v>
@@ -9942,35 +10112,39 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E22" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M22</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F22" s="76" t="str">
         <f>'Virtual Machines (Split)'!N22</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F22" s="75" t="str">
+      <c r="G22" s="75" t="str">
         <f>'Virtual Machines (Split)'!O22</f>
-        <v>10.3.2.6</v>
-      </c>
-      <c r="G22" s="75" t="str">
+        <v>10.4.1.6</v>
+      </c>
+      <c r="H22" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I22,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H22" s="75" t="str">
+      <c r="I22" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I22" s="75" t="str">
+      <c r="J22" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J22" s="75" t="str">
+      <c r="K22" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K22" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L22,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L22,".blob.core.windows.net/osdisks/",C22,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamport01.vhd</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="str">
         <f>'Virtual Machines (Split)'!J23</f>
         <v>SouthCentralUS</v>
@@ -9988,32 +10162,36 @@
         <v>Standard_B2s</v>
       </c>
       <c r="E23" s="76" t="str">
+        <f>'Virtual Machines (Split)'!M23</f>
+        <v>ttplab1-scu-vnet-1</v>
+      </c>
+      <c r="F23" s="76" t="str">
         <f>'Virtual Machines (Split)'!N23</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="F23" s="75" t="str">
+      <c r="G23" s="75" t="str">
         <f>'Virtual Machines (Split)'!O23</f>
-        <v>10.3.2.7</v>
-      </c>
-      <c r="G23" s="75" t="str">
+        <v>10.4.1.7</v>
+      </c>
+      <c r="H23" s="75" t="str">
         <f>VLOOKUP('Virtual Machines (Split)'!I23,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="H23" s="75" t="str">
+      <c r="I23" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="I23" s="75" t="str">
+      <c r="J23" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="J23" s="75" t="str">
+      <c r="K23" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="K23" s="75" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L23,".blob.core.windows.net/osdisks/")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/</v>
+      <c r="L23" s="75" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines (Split)'!L23,".blob.core.windows.net/osdisks/",C23,".vhd")</f>
+        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamscor01.vhd</v>
       </c>
     </row>
   </sheetData>
@@ -10045,69 +10223,69 @@
         <v>6</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -10140,8 +10318,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10159,16 +10337,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>4</v>
@@ -10176,142 +10354,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>285</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -10337,142 +10515,142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
